--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -1463,9 +1463,6 @@
     <t>Book Chapter</t>
   </si>
   <si>
-    <t xml:space="preserve">Contribution to Collected Edition </t>
-  </si>
-  <si>
     <t>Contribution to Commentary</t>
   </si>
   <si>
@@ -1644,6 +1641,9 @@
   </si>
   <si>
     <t>por - Portuguese</t>
+  </si>
+  <si>
+    <t>Contribution to Collected Edition</t>
   </si>
 </sst>
 </file>
@@ -2057,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,16 +2106,16 @@
         <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2142,10 +2142,10 @@
         <v>415</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>418</v>
@@ -2154,10 +2154,10 @@
         <v>411</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>423</v>
@@ -2172,16 +2172,16 @@
         <v>426</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>422</v>
@@ -2231,10 +2231,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2265,19 +2265,19 @@
         <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -2301,70 +2301,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2372,70 +2372,70 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -3974,22 +3974,22 @@
         <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4013,22 +4013,22 @@
         <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4052,19 +4052,19 @@
         <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4092,16 +4092,16 @@
         <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4126,19 +4126,19 @@
         <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4166,16 +4166,16 @@
         <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4203,16 +4203,16 @@
         <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4237,19 +4237,19 @@
         <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4526,7 +4526,7 @@
         <v>411</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>412</v>
@@ -5478,7 +5478,7 @@
         <v>411</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>412</v>
@@ -5953,7 +5953,7 @@
         <v>411</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>412</v>

--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -797,9 +797,6 @@
     <t>[Publication Date]</t>
   </si>
   <si>
-    <t>2014-15-01</t>
-  </si>
-  <si>
     <t>2018-02-15</t>
   </si>
   <si>
@@ -1644,6 +1641,9 @@
   </si>
   <si>
     <t>Contribution to Collected Edition</t>
+  </si>
+  <si>
+    <t>2014-01-15</t>
   </si>
 </sst>
 </file>
@@ -2057,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2103,19 +2103,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2139,55 +2139,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -2200,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2231,10 +2231,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2262,22 +2262,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -2301,70 +2301,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2372,70 +2372,70 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2443,70 +2443,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="192" x14ac:dyDescent="0.25">
@@ -2585,25 +2585,25 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2632,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -2740,31 +2740,31 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2785,70 +2785,70 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="K15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="N15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="Q15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="T15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="V15" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="W15" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -3282,75 +3282,75 @@
         <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="T22" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="V22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -3544,7 +3544,7 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -3582,7 +3582,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>97</v>
@@ -3591,7 +3591,7 @@
         <v>98</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>97</v>
@@ -3600,7 +3600,7 @@
         <v>98</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>97</v>
@@ -3609,7 +3609,7 @@
         <v>98</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>97</v>
@@ -3618,7 +3618,7 @@
         <v>98</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>97</v>
@@ -3627,7 +3627,7 @@
         <v>98</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>97</v>
@@ -3636,7 +3636,7 @@
         <v>98</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>97</v>
@@ -3974,22 +3974,22 @@
         <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4013,22 +4013,22 @@
         <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4052,19 +4052,19 @@
         <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4092,16 +4092,16 @@
         <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4126,19 +4126,19 @@
         <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4166,16 +4166,16 @@
         <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4203,16 +4203,16 @@
         <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4237,19 +4237,19 @@
         <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4460,13 +4460,13 @@
         <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4493,25 +4493,25 @@
         <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>173</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>174</v>
@@ -4523,16 +4523,16 @@
         <v>176</v>
       </c>
       <c r="L47" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="N47" s="5" t="s">
+      <c r="O47" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>177</v>
@@ -4544,7 +4544,7 @@
         <v>179</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>180</v>
@@ -4668,19 +4668,19 @@
         <v>210</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4702,22 +4702,22 @@
     </row>
     <row r="51" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4739,22 +4739,22 @@
     </row>
     <row r="52" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -4776,22 +4776,22 @@
     </row>
     <row r="53" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4813,22 +4813,22 @@
     </row>
     <row r="54" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -4850,22 +4850,22 @@
     </row>
     <row r="55" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4887,19 +4887,19 @@
     </row>
     <row r="56" spans="1:23" ht="108" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4922,19 +4922,19 @@
     </row>
     <row r="57" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4957,19 +4957,19 @@
     </row>
     <row r="58" spans="1:23" ht="84" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4992,19 +4992,19 @@
     </row>
     <row r="59" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -5027,19 +5027,19 @@
     </row>
     <row r="60" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5062,17 +5062,17 @@
     </row>
     <row r="61" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -5126,22 +5126,22 @@
     </row>
     <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -5163,22 +5163,22 @@
     </row>
     <row r="64" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -5200,16 +5200,16 @@
     </row>
     <row r="65" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="66" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>75</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>75</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="68" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>75</v>
@@ -5320,43 +5320,43 @@
     </row>
     <row r="69" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5371,99 +5371,99 @@
     </row>
     <row r="70" spans="1:23" ht="72" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="D70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="F70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="H70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="J70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="L70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="N70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="P70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="Q70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="R70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="S70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="T70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="U70" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="V70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W70" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>173</v>
       </c>
       <c r="G71" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>174</v>
@@ -5475,16 +5475,16 @@
         <v>176</v>
       </c>
       <c r="L71" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>177</v>
@@ -5496,7 +5496,7 @@
         <v>179</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>180</v>
@@ -5513,78 +5513,78 @@
     </row>
     <row r="72" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="K72" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="L72" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="N72" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="O72" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="P72" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="P72" s="5" t="s">
+      <c r="Q72" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="R72" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="S72" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="S72" s="5" t="s">
+      <c r="T72" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="T72" s="5" t="s">
+      <c r="V72" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="U72" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V72" s="1" t="s">
+      <c r="W72" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>67</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>75</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="75" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5697,149 +5697,149 @@
     </row>
     <row r="76" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="G76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="K76" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="L76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="O76" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="P76" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="P76" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="Q76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="S76" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="T76" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="T76" s="5" t="s">
+      <c r="U76" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="U76" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="V76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="W76" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="M77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="O77" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="P77" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="P77" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="R77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S77" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="S77" s="5" t="s">
+      <c r="T77" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="T77" s="5" t="s">
+      <c r="U77" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>146</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>157</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="79" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>164</v>
@@ -5917,28 +5917,28 @@
     </row>
     <row r="80" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>173</v>
       </c>
       <c r="G80" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>174</v>
@@ -5950,16 +5950,16 @@
         <v>176</v>
       </c>
       <c r="L80" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="N80" s="5" t="s">
+      <c r="O80" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>177</v>
@@ -5971,7 +5971,7 @@
         <v>179</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T80" s="5" t="s">
         <v>180</v>
@@ -5988,170 +5988,170 @@
     </row>
     <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="K81" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="L81" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="O81" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="P81" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="P81" s="5" t="s">
+      <c r="Q81" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="Q81" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="R81" s="5" t="s">
         <v>200</v>
       </c>
       <c r="S81" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="T81" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="T81" s="5" t="s">
+      <c r="U81" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="U81" s="5" t="s">
+      <c r="V81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="V81" s="1" t="s">
+      <c r="W81" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="G82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="L82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="P82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="P82" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="Q82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="R82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="S82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="S82" s="1" t="s">
+      <c r="T82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="T82" s="1" t="s">
+      <c r="U82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="U82" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="V82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="W82" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -6171,22 +6171,22 @@
     </row>
     <row r="84" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6208,22 +6208,22 @@
     </row>
     <row r="85" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>

--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -1733,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1753,6 +1753,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2057,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,9 +2079,7 @@
       <c r="D1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -2189,7 +2190,9 @@
       <c r="R3" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="9" t="s">
+        <v>430</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>

--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -358,15 +358,6 @@
   </si>
   <si>
     <t>[Classification value DDC]</t>
-  </si>
-  <si>
-    <t>herbaceous plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific physiological systems in animals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geology, hydrology &amp; meteorology </t>
   </si>
   <si>
     <t>Landscape design of cemeteries - 718</t>
@@ -1644,6 +1635,15 @@
   </si>
   <si>
     <t>2014-01-15</t>
+  </si>
+  <si>
+    <t>Herbaceous plants - 716</t>
+  </si>
+  <si>
+    <t>Specific physiological systems in animals - 573</t>
+  </si>
+  <si>
+    <t>Geology, hydrology &amp; meteorology - 551</t>
   </si>
 </sst>
 </file>
@@ -2060,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2104,19 +2104,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2140,58 +2140,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="1"/>
@@ -2203,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2234,10 +2234,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2265,22 +2265,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -2304,70 +2304,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2375,70 +2375,70 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2446,70 +2446,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="192" x14ac:dyDescent="0.25">
@@ -2588,25 +2588,25 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2635,7 +2635,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -2743,31 +2743,31 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="J14" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2788,70 +2788,70 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -3285,75 +3285,75 @@
         <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="T22" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="V22" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -3547,7 +3547,7 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -3585,7 +3585,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>97</v>
@@ -3594,7 +3594,7 @@
         <v>98</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>97</v>
@@ -3603,7 +3603,7 @@
         <v>98</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>97</v>
@@ -3612,7 +3612,7 @@
         <v>98</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>97</v>
@@ -3621,7 +3621,7 @@
         <v>98</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>97</v>
@@ -3630,7 +3630,7 @@
         <v>98</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>97</v>
@@ -3639,252 +3639,252 @@
         <v>98</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="L29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="Q29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="V29" s="1" t="s">
-        <v>100</v>
+        <v>491</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>101</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="L30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="V30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="L31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="Q31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="V31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3903,96 +3903,96 @@
     </row>
     <row r="33" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="N33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="T33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4013,25 +4013,25 @@
     </row>
     <row r="35" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4052,22 +4052,22 @@
     </row>
     <row r="36" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4089,22 +4089,22 @@
     </row>
     <row r="37" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4126,22 +4126,22 @@
     </row>
     <row r="38" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4163,22 +4163,22 @@
     </row>
     <row r="39" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="40" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="41" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4274,93 +4274,93 @@
     </row>
     <row r="42" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="N42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="T42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W42" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -4382,25 +4382,25 @@
     </row>
     <row r="44" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4421,25 +4421,25 @@
     </row>
     <row r="45" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4493,158 +4493,158 @@
     </row>
     <row r="47" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="K47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="M47" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="O47" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="Q47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="R47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="S47" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="P47" s="5" t="s">
+      <c r="T47" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="U47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="V47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S47" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="T47" s="5" t="s">
+      <c r="W47" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F48" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="N48" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="O48" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="Q48" s="8">
         <v>24312104</v>
       </c>
       <c r="R48" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U48" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="S48" s="5" t="s">
+      <c r="V48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="W48" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4668,22 +4668,22 @@
     </row>
     <row r="50" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="F50" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4705,22 +4705,22 @@
     </row>
     <row r="51" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="E51" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="F51" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4742,22 +4742,22 @@
     </row>
     <row r="52" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="E52" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="F52" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -4779,22 +4779,22 @@
     </row>
     <row r="53" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4816,22 +4816,22 @@
     </row>
     <row r="54" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="E54" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="F54" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="55" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="E55" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="F55" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4890,19 +4890,19 @@
     </row>
     <row r="56" spans="1:23" ht="108" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="E56" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4925,19 +4925,19 @@
     </row>
     <row r="57" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="E57" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4960,19 +4960,19 @@
     </row>
     <row r="58" spans="1:23" ht="84" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="E58" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4995,19 +4995,19 @@
     </row>
     <row r="59" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="E59" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -5030,19 +5030,19 @@
     </row>
     <row r="60" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="E60" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5065,17 +5065,17 @@
     </row>
     <row r="61" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5098,13 +5098,13 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -5129,22 +5129,22 @@
     </row>
     <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="E63" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="F63" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -5166,22 +5166,22 @@
     </row>
     <row r="64" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="E64" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="F64" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -5203,16 +5203,16 @@
     </row>
     <row r="65" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="66" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>75</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>75</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="68" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>75</v>
@@ -5323,43 +5323,43 @@
     </row>
     <row r="69" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="F69" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5374,220 +5374,220 @@
     </row>
     <row r="70" spans="1:23" ht="72" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="H71" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="I71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="K71" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L71" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="M71" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="P71" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="Q71" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="R71" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L71" s="5" t="s">
+      <c r="S71" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="P71" s="5" t="s">
+      <c r="T71" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="U71" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="V71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="T71" s="5" t="s">
+      <c r="W71" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="U71" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="F72" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="K72" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="L72" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="N72" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="O72" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="P72" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="Q72" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="R72" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="P72" s="5" t="s">
+      <c r="S72" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="T72" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="R72" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="S72" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="V72" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>67</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>75</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="75" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5700,167 +5700,167 @@
     </row>
     <row r="76" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="E76" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="F76" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="G76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="K76" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="L76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="P76" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="N76" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="P76" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="Q76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T76" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="U76" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="U76" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="V76" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="F77" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K77" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="L77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P77" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="O77" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="P77" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U77" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="S77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T77" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="V77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="F78" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="79" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="F79" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -5920,241 +5920,241 @@
     </row>
     <row r="80" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="H80" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="I80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="K80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L80" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="M80" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="O80" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="P80" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="Q80" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="R80" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L80" s="5" t="s">
+      <c r="S80" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="P80" s="5" t="s">
+      <c r="T80" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Q80" s="5" t="s">
+      <c r="U80" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R80" s="5" t="s">
+      <c r="V80" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S80" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="T80" s="5" t="s">
+      <c r="W80" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="U80" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="E81" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="G81" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="K81" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="L81" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="O81" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="P81" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="Q81" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="R81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S81" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="P81" s="5" t="s">
+      <c r="T81" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="Q81" s="5" t="s">
+      <c r="U81" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="R81" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="S81" s="5" t="s">
+      <c r="V81" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="T81" s="5" t="s">
+      <c r="W81" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="U81" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="E82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="G82" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="L82" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="P82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="Q82" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="U82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="V82" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -6174,22 +6174,22 @@
     </row>
     <row r="84" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6211,22 +6211,22 @@
     </row>
     <row r="85" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>

--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19395" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="493">
   <si>
     <t>SOURCE_DEP</t>
   </si>
@@ -1380,9 +1381,6 @@
   </si>
   <si>
     <t>eDoc</t>
-  </si>
-  <si>
-    <t>eSciDoc</t>
   </si>
   <si>
     <t>Other</t>
@@ -2060,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2104,19 +2102,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2140,58 +2138,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="1"/>
@@ -2203,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2234,10 +2232,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2265,22 +2263,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -2304,70 +2302,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2375,70 +2373,70 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2446,70 +2444,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="192" x14ac:dyDescent="0.25">
@@ -3547,7 +3545,7 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -3650,13 +3648,13 @@
         <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>100</v>
@@ -3665,13 +3663,13 @@
         <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>100</v>
@@ -3680,13 +3678,13 @@
         <v>101</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>100</v>
@@ -3695,13 +3693,13 @@
         <v>101</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>100</v>
@@ -3710,10 +3708,10 @@
         <v>101</v>
       </c>
       <c r="V29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="48" x14ac:dyDescent="0.25">
@@ -3977,22 +3975,22 @@
         <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4016,22 +4014,22 @@
         <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4055,19 +4053,19 @@
         <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4095,16 +4093,16 @@
         <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4129,19 +4127,19 @@
         <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4169,16 +4167,16 @@
         <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4206,16 +4204,16 @@
         <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4240,19 +4238,19 @@
         <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4513,9 +4511,7 @@
       <c r="G47" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>406</v>
-      </c>
+      <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
         <v>171</v>
       </c>
@@ -4526,16 +4522,16 @@
         <v>173</v>
       </c>
       <c r="L47" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="N47" s="5" t="s">
+      <c r="O47" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>174</v>
@@ -4547,7 +4543,7 @@
         <v>176</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>177</v>
@@ -4671,7 +4667,7 @@
         <v>207</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>208</v>
@@ -5326,40 +5322,40 @@
         <v>292</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5465,9 +5461,7 @@
       <c r="G71" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>406</v>
-      </c>
+      <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
         <v>171</v>
       </c>
@@ -5478,16 +5472,16 @@
         <v>173</v>
       </c>
       <c r="L71" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>174</v>
@@ -5499,7 +5493,7 @@
         <v>176</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>177</v>
@@ -5940,9 +5934,7 @@
       <c r="G80" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>406</v>
-      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="5" t="s">
         <v>171</v>
       </c>
@@ -5953,16 +5945,16 @@
         <v>173</v>
       </c>
       <c r="L80" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="N80" s="5" t="s">
+      <c r="O80" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>174</v>
@@ -5974,7 +5966,7 @@
         <v>176</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T80" s="5" t="s">
         <v>177</v>

--- a/res/data_table.xlsx
+++ b/res/data_table.xlsx
@@ -1,152 +1,349 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19395" windowHeight="8250"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="493">
   <si>
-    <t>SOURCE_DEP</t>
-  </si>
-  <si>
-    <t>SOURCE_DEP_BOOK</t>
-  </si>
-  <si>
-    <t>SOURCE_INDEP</t>
-  </si>
-  <si>
-    <t>NO_SOURCE</t>
-  </si>
-  <si>
-    <t>EVENT_DEPENDENT</t>
-  </si>
-  <si>
-    <t>EVENT</t>
-  </si>
-  <si>
-    <t>DEGREE</t>
-  </si>
-  <si>
-    <t>PATENT</t>
-  </si>
-  <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
-    <t>[title]</t>
-  </si>
-  <si>
-    <t>Title [selected genre] - [type of submission] -[Type of workflow] - timestamp</t>
-  </si>
-  <si>
-    <t>Titek nicht nur umlaute at skabelse har værkshøjde, og er i ophavsretlig forstand et værk - [timestamp]</t>
+    <t xml:space="preserve">SOURCE_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DEP_BOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution to Collected Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution to Festschrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution to Commentary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution to Handbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_INDEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collected Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festschrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monograph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newspaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newspaper Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_SOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEGREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[title]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title [selected genre] - [type of submission] -[Type of workflow] - timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titek nicht nur umlaute at skabelse har værkshøjde, og er i ophavsretlig forstand et værk - [timestamp]</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Transition Metal β-Orbital Splitting Diagrams: An Updated </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="4"/>
+        <color rgb="FF4F81BD"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Birnbaumleiter </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>Educational Resource for Square Planar Transition Metal Complexes - [timestamp]</t>
+      <t xml:space="preserve">Educational Resource for Square Planar Transition Metal Complexes - [timestamp]</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">glyXtoolMS-Towards Automated </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="4"/>
+        <color rgb="FF4F81BD"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>Birnbaumleiter</t>
+      <t xml:space="preserve">Birnbaumleiter</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Analysis of Glycopeptide Mass Spectrometry Data - [timestamp]</t>
     </r>
   </si>
   <si>
-    <t>Valence State of Pb in Transition Metal Perovskites PbTMO3 (TM = Ti, Ni) Determined From X-Ray Absorption Near-Edge Spectroscopy - [timestamp]</t>
-  </si>
-  <si>
-    <t>[degree type]</t>
-  </si>
-  <si>
-    <t>[upload file]</t>
-  </si>
-  <si>
-    <t>SamplePDFFile.pdf</t>
-  </si>
-  <si>
-    <t>SampleJPGFile.jpg</t>
-  </si>
-  <si>
-    <t>SampleWordFile.docx</t>
-  </si>
-  <si>
-    <t>SamplePNGFile.png</t>
-  </si>
-  <si>
-    <t>SampleZIPFile.zip</t>
-  </si>
-  <si>
-    <t>SampleXLSXFile.xlsx</t>
-  </si>
-  <si>
-    <t>SamplePPTXFile.pptx</t>
-  </si>
-  <si>
-    <t>[file URL]</t>
-  </si>
-  <si>
-    <t>http://www.jucs.org/jucs_11_4/tube_map_visualization_evaluation/Burkhard_R_A.pdf</t>
-  </si>
-  <si>
-    <t>[content category all]</t>
-  </si>
-  <si>
-    <t>[Visibility]</t>
-  </si>
-  <si>
-    <t>[description file]</t>
-  </si>
-  <si>
-    <t>default description - timestamp</t>
+    <t xml:space="preserve">Valence State of Pb in Transition Metal Perovskites PbTMO3 (TM = Ti, Ni) Determined From X-Ray Absorption Near-Edge Spectroscopy - [timestamp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[degree type]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staatsexamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[upload file]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplePDFFile.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleJPGFile.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleTIFFile.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleWordFile.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplePNGFile.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleZIPFile.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleXLSXFile.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplePPTXFile.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[file URL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jucs.org/jucs_11_4/tube_map_visualization_evaluation/Burkhard_R_A.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[content category all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright transfer agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any fulltext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table of contents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Visibility]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[description file]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default description - timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">Description Full text via KUPS (Universität Köln) </t>
@@ -155,169 +352,232 @@
     <t xml:space="preserve">(Reprinted in Common sense, reasoning, and rationality, pp. 148-173, by R. Elio, Ed., 2002, Oxford: Oxford University Press)***(Reprinted in Heuristics and biases: The psychology of intuitive judgment, pp. 559-581, by T. Gilovich, D. Griffin, &amp; D. Kahnemann, Eds., 2002, Cambridge: Cambridge University Press) </t>
   </si>
   <si>
-    <t>Die Sandhausener Dünen zählen zu den bemerkenswertesten Dünengebieten Baden-Württembergs, da sie eine in diesem Bundesland selten gewordene Vegetation vorweisen, die nur auf kalkhaltigem, humusarmem Sandrasen gedeiht.[2] Offene Sandfluren waren im Oberrheingebiet im Mittelalter mit seiner extensiven Landwirtschaft (Brachen, Waldweiden) weit verbreitet. Durch Aufforstungen, intensiven Spargelanbau, Bebauung und Industrie wurden diese Sandfluren weit zurückgedrängt. Für Sanddünen typische Pflanzen wie Sand-Strohblume, Blaugrünes Schillergras und Sand-Silberscharte waren vor circa 100 Jahren noch im ganzen Gebiet zwischen Friedrichsfeld-Rheinau und Walldorf-Hockenheim zu finden. Inzwischen sind ihre Vorkommen auf wenige Flächen wie die Naturschutzgebiete in Sandhausen beschränkt.[3]</t>
-  </si>
-  <si>
-    <t>Sheshi was a ruler of parts of Ancient Egypt sometime between 1800 and 1550 BC, near the end of the Middle Kingdom or during the Second Intermediate Period. Based on the archaeological evidence, he is the best attested king in this timeframe; hundreds of scaraboid seals bearing his name have been found as far away as Carthage and throughout Canaan, Egypt, and Nubia. Nevertheless, historians cannot pin down basic facts about this ruler, such as his dynasty or the duration and extent of his reign. Three competing hypotheses have been put forth: he may have been Salitis, founder of the 15th Dynasty and king of the invading Hyksos, or a later Hyksos king or vassal of the second half of the 15th Dynasty, or a ruler of the 14th Dynasty, a line of kings of Canaanite descent ruling over the Eastern Nile Delta immediately before the arrival of the Hyksos.</t>
-  </si>
-  <si>
-    <t>[files audience ids] (in progress)</t>
-  </si>
-  <si>
-    <t>Max Planck Digital Library, München</t>
-  </si>
-  <si>
-    <t>Max Planck Institute for Astronomy, Heidelberg</t>
-  </si>
-  <si>
-    <t>Fritz Haber Institute of the Max Planck Society, Berlin</t>
-  </si>
-  <si>
-    <t>Bibliotheca Hertziana - Max Planck Institute for Art History, Rom</t>
-  </si>
-  <si>
-    <t>[Copyright statement]</t>
-  </si>
-  <si>
-    <t>Irgendein Text, der Informationen zum Copyright gibt</t>
-  </si>
-  <si>
-    <t>© 2018 Rimmele, Gross, Molholm and Keitel. The use, distribution or reproduction in other forums is permitted, provided the original author(s) and the copyright owner are credited and that the original publication in this journal is cited, in accordance with accepted academic practice. No use, distribution or reproduction is permitted which does not comply with these terms.</t>
+    <t xml:space="preserve">Die Sandhausener Dünen zählen zu den bemerkenswertesten Dünengebieten Baden-Württembergs, da sie eine in diesem Bundesland selten gewordene Vegetation vorweisen, die nur auf kalkhaltigem, humusarmem Sandrasen gedeiht.[2] Offene Sandfluren waren im Oberrheingebiet im Mittelalter mit seiner extensiven Landwirtschaft (Brachen, Waldweiden) weit verbreitet. Durch Aufforstungen, intensiven Spargelanbau, Bebauung und Industrie wurden diese Sandfluren weit zurückgedrängt. Für Sanddünen typische Pflanzen wie Sand-Strohblume, Blaugrünes Schillergras und Sand-Silberscharte waren vor circa 100 Jahren noch im ganzen Gebiet zwischen Friedrichsfeld-Rheinau und Walldorf-Hockenheim zu finden. Inzwischen sind ihre Vorkommen auf wenige Flächen wie die Naturschutzgebiete in Sandhausen beschränkt.[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheshi was a ruler of parts of Ancient Egypt sometime between 1800 and 1550 BC, near the end of the Middle Kingdom or during the Second Intermediate Period. Based on the archaeological evidence, he is the best attested king in this timeframe; hundreds of scaraboid seals bearing his name have been found as far away as Carthage and throughout Canaan, Egypt, and Nubia. Nevertheless, historians cannot pin down basic facts about this ruler, such as his dynasty or the duration and extent of his reign. Three competing hypotheses have been put forth: he may have been Salitis, founder of the 15th Dynasty and king of the invading Hyksos, or a later Hyksos king or vassal of the second half of the 15th Dynasty, or a ruler of the 14th Dynasty, a line of kings of Canaanite descent ruling over the Eastern Nile Delta immediately before the arrival of the Hyksos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[files audience ids] (in progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Planck Digital Library, München</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Planck Institute for Astronomy, Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz Haber Institute of the Max Planck Society, Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliotheca Hertziana - Max Planck Institute for Art History, Rom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Copyright statement]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irgendein Text, der Informationen zum Copyright gibt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© 2018 Rimmele, Gross, Molholm and Keitel. The use, distribution or reproduction in other forums is permitted, provided the original author(s) and the copyright owner are credited and that the original publication in this journal is cited, in accordance with accepted academic practice. No use, distribution or reproduction is permitted which does not comply with these terms.</t>
   </si>
   <si>
     <t xml:space="preserve">This article is licensed under a Creative Commons Attribution 4.0 International License, which permits use, sharing, adaptation, distribution and reproduction in any medium or format, as long as you give appropriate credit to the original author(s) and the source, provide a link to the Creative Commons license, and indicate if changes were made. The images or other third party material in this article are included in the article’s Creative Commons license, unless indicated otherwise in a credit line to the material. If material is not included in the article’s Creative Commons license and your intended use is not permitted by statutory regulation or exceeds the permitted use, you will need to obtain permission directly from the copyright holder. To view a copy of this license, visit http://creativecommons.org/licenses/by/4.0/. </t>
   </si>
   <si>
-    <t>Jahrbuch 2000, Copyright MPG 2000</t>
-  </si>
-  <si>
-    <t>El derecho de autor es un conjunto de normas jurídicas y principios que afirman los derechos morales y patrimoniales que la ley concede a los autores (los derechos de autor), por el simple hecho de la creación de una obra literaria, artística, musical, científica o didáctica, esté publicada o inédita. La legislación sobre derechos de autor en Occidente se inicia en 1710 con el Estatuto de la Reina Ana.</t>
-  </si>
-  <si>
-    <t>Comme le droit d'auteur, le copyright ne protège pas les simples idées. Son champ est généralement plus large que celui du droit d'auteur, car le copyright protège davantage l'investissement que le caractère créatif.</t>
-  </si>
-  <si>
-    <t>[Copyright Date]</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>[license URL]</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-sa/4.0/</t>
-  </si>
-  <si>
-    <t>https://www.govdata.de/dl-de/by-2-0</t>
-  </si>
-  <si>
-    <t>https://opendatacommons.org/licenses/by/summary/</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/publicdomain/zero/1.0/</t>
-  </si>
-  <si>
-    <t>[locator]</t>
-  </si>
-  <si>
-    <t>https://www.mpg.de/de</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/1943#April</t>
-  </si>
-  <si>
-    <t>https://www.mpdl.mpg.de/</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Luigi_Boccherini</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27058758</t>
+    <t xml:space="preserve">Jahrbuch 2000, Copyright MPG 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El derecho de autor es un conjunto de normas jurídicas y principios que afirman los derechos morales y patrimoniales que la ley concede a los autores (los derechos de autor), por el simple hecho de la creación de una obra literaria, artística, musical, científica o didáctica, esté publicada o inédita. La legislación sobre derechos de autor en Occidente se inicia en 1710 con el Estatuto de la Reina Ana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme le droit d'auteur, le copyright ne protège pas les simples idées. Son champ est généralement plus large que celui du droit d'auteur, car le copyright protège davantage l'investissement que le caractère créatif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Copyright Date]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[license URL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://creativecommons.org/licenses/by-sa/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.govdata.de/dl-de/by-2-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendatacommons.org/licenses/by/summary/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://creativecommons.org/publicdomain/zero/1.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[locator]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mpg.de/de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.wikipedia.org/wiki/1943#April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mpdl.mpg.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.wikipedia.org/wiki/Luigi_Boccherini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pubmed/27058758</t>
   </si>
   <si>
     <t xml:space="preserve">http://arxiv.org/abs/1508.06576 </t>
   </si>
   <si>
-    <t>[role all]</t>
-  </si>
-  <si>
-    <t>Haarländer</t>
+    <t xml:space="preserve">[role all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illustrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honoree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinematographer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Person]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haarländer</t>
   </si>
   <si>
     <t xml:space="preserve">Boosen </t>
   </si>
   <si>
-    <t>Chen, Hua</t>
+    <t xml:space="preserve">Chen, Hua</t>
   </si>
   <si>
     <t xml:space="preserve">Müller </t>
   </si>
   <si>
-    <t>Maier-Testberg</t>
-  </si>
-  <si>
-    <t>Siedersleben</t>
-  </si>
-  <si>
-    <t>Kasanmascheff</t>
-  </si>
-  <si>
-    <t>[organization]</t>
-  </si>
-  <si>
-    <t>autocomplete</t>
-  </si>
-  <si>
-    <t>autocompete</t>
-  </si>
-  <si>
-    <t>Universität Bielefeld</t>
-  </si>
-  <si>
-    <t>Max Planck Institute for Chemical Energy Conversion, Mülheim Ruhr</t>
-  </si>
-  <si>
-    <t>[adress organization]</t>
-  </si>
-  <si>
-    <t>Amselstraße 25, 234567 Bielefeld - Zentrum</t>
-  </si>
-  <si>
-    <t>Beispielweg 56, 098765 Mühlheim a.d. Ruhr</t>
-  </si>
-  <si>
-    <t>[add multiple]</t>
-  </si>
-  <si>
-    <t>Neil H Riordan, Thomas E Ichim, Wei-Ping Min, Hao Wang, Fabio Solano, Fabian Lara, Miguel Alfaro, Jorge Paz Rodriguez, Robert J Harman, Amit N Patel, Michael P Murphy, Roland R Lee and Boris Minev</t>
-  </si>
-  <si>
-    <t>Liyan Qiao, Shusei Hamamichi, Kim A Caldwell, Guy A Caldwell, Talene A Yacoubian, Scott Wilson, Zuo-Lei Xie, Lisa D Speake, Rachael Parks, Donna Crabtree, Qiuli Liang, Stephen Crimmins, Lonnie Schneider, Yasuo Uchiyama, Takeshi Iwatsubo, Yi Zhou, Lisheng Peng, YouMing Lu, David G Standaert, Ken C Walls, John J Shacka, Kevin A Roth and Jianhua Zhang</t>
-  </si>
-  <si>
-    <t>Paul Paul Michel Aloyse Anton, Christophe Trefois, Aleksandar Stojanovic, Aidos Sagatovich Baumuratov and Karol Kozak</t>
-  </si>
-  <si>
-    <t>Maria H Nilsson, Mitesh Patel, Stig Rehncrona, Måns Magnusson and Per-Anders Fransson</t>
+    <t xml:space="preserve">Maier-Testberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siedersleben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasanmascheff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[organization]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autocomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autocompete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universität Bielefeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Planck Institute for Chemical Energy Conversion, Mülheim Ruhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[adress organization]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amselstraße 25, 234567 Bielefeld - Zentrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beispielweg 56, 098765 Mühlheim a.d. Ruhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[add multiple]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neil H Riordan, Thomas E Ichim, Wei-Ping Min, Hao Wang, Fabio Solano, Fabian Lara, Miguel Alfaro, Jorge Paz Rodriguez, Robert J Harman, Amit N Patel, Michael P Murphy, Roland R Lee and Boris Minev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liyan Qiao, Shusei Hamamichi, Kim A Caldwell, Guy A Caldwell, Talene A Yacoubian, Scott Wilson, Zuo-Lei Xie, Lisa D Speake, Rachael Parks, Donna Crabtree, Qiuli Liang, Stephen Crimmins, Lonnie Schneider, Yasuo Uchiyama, Takeshi Iwatsubo, Yi Zhou, Lisheng Peng, YouMing Lu, David G Standaert, Ken C Walls, John J Shacka, Kevin A Roth and Jianhua Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Paul Michel Aloyse Anton, Christophe Trefois, Aleksandar Stojanovic, Aidos Sagatovich Baumuratov and Karol Kozak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria H Nilsson, Mitesh Patel, Stig Rehncrona, Måns Magnusson and Per-Anders Fransson</t>
   </si>
   <si>
     <t xml:space="preserve">Shannon Rose, Sirish C. Bennuri, Katherine F. Murray, Timothy Buie, Harland Winter, Richard Eugene Frye
@@ -328,85 +588,100 @@
 </t>
   </si>
   <si>
-    <t>[free keywords]</t>
-  </si>
-  <si>
-    <t>open access, laser, blumenwiese, chemie</t>
-  </si>
-  <si>
-    <t>bauer haus kuh trecker</t>
+    <t xml:space="preserve">[free keywords]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open access, laser, blumenwiese, chemie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bauer haus kuh trecker</t>
   </si>
   <si>
     <t xml:space="preserve">Cu/ZrO2 catalysts; methanol steam reforming; XRD; TG; structure-activity-correlation 26; CuO/ZnO Catalysts in Methanol Steam Reforming </t>
   </si>
   <si>
+    <t xml:space="preserve">CH functionalization; fluorine; trifluoromethylation KeyWords Plus:OXIDATIVE DESULFURIZATION-FLUORINATION; ONE-POT SYNTHESIS; ELECTROPHILIC DIFLUOROMETHYLATING REAGENT;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Handelingen van de Anéla-studiedag op 3 November 1979 te Nijmegen </t>
   </si>
   <si>
-    <t>Groundwater Long-term monitoring Simulation Soil hydrology Spatio-temporal variability Urban soils</t>
-  </si>
-  <si>
-    <t>VEGETATION; NITROGENBiodiversity &amp; Conservation; Environmental Sciences &amp; Ecology;</t>
-  </si>
-  <si>
-    <t>[Classification type]</t>
-  </si>
-  <si>
-    <t>DDC</t>
-  </si>
-  <si>
-    <t>MPIPKS</t>
-  </si>
-  <si>
-    <t>[Classification value DDC]</t>
-  </si>
-  <si>
-    <t>Landscape design of cemeteries - 718</t>
-  </si>
-  <si>
-    <t>Customs, etiquette &amp; folklore - 390</t>
-  </si>
-  <si>
-    <t>[Classification value MPIPKS]</t>
-  </si>
-  <si>
-    <t>Living matter</t>
-  </si>
-  <si>
-    <t>Superconductivity and magnetism</t>
-  </si>
-  <si>
-    <t>Phase transitions and critical phenomena</t>
-  </si>
-  <si>
-    <t>Semiclassics and chaos in quantum systems</t>
-  </si>
-  <si>
-    <t>Ultracold matter</t>
-  </si>
-  <si>
-    <t>[Classification value ISO 639-3]</t>
-  </si>
-  <si>
-    <t>gla - Scottish Gaelic</t>
-  </si>
-  <si>
-    <t>llf - Hermit</t>
-  </si>
-  <si>
-    <t>kqq - Krenak</t>
-  </si>
-  <si>
-    <t>bah - Bahamas Creole English</t>
-  </si>
-  <si>
-    <t>frm - Middle French (ca. 1400-1600)</t>
-  </si>
-  <si>
-    <t>[abstract]</t>
-  </si>
-  <si>
-    <t>Der nur wenige Monate dauernde Aufenthalt in Paris war ein entscheidender Wendepunkt in Boccherinis Karriere, in dessen Folge er sich von einem Cellovirtuosen zu einem der bedeutendsten Instrumentalkomponisten des späten 18. Jahrhunderts wandelte.</t>
+    <t xml:space="preserve">Groundwater Long-term monitoring Simulation Soil hydrology Spatio-temporal variability Urban soils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGETATION; NITROGENBiodiversity &amp; Conservation; Environmental Sciences &amp; Ecology;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Classification type]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPIPKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO639-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Classification value DDC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbaceous plants - 716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific physiological systems in animals - 573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geology, hydrology &amp; meteorology - 551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscape design of cemeteries - 718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customs, etiquette &amp; folklore - 390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Classification value MPIPKS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superconductivity and magnetism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase transitions and critical phenomena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiclassics and chaos in quantum systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultracold matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Classification value ISO 639-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gla - Scottish Gaelic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llf - Hermit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kqq - Krenak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bah - Bahamas Creole English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frm - Middle French (ca. 1400-1600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[abstract]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der nur wenige Monate dauernde Aufenthalt in Paris war ein entscheidender Wendepunkt in Boccherinis Karriere, in dessen Folge er sich von einem Cellovirtuosen zu einem der bedeutendsten Instrumentalkomponisten des späten 18. Jahrhunderts wandelte.</t>
   </si>
   <si>
     <t xml:space="preserve">Over the past decade, the most significant, conceptual advances in the field of fluorination were enabled most prominently by organo- and transition-metal catalysis. The most challenging transformation remains the formation of the parent C-F bond, primarily as a consequence of the high hydration energy of fluoride, strong metal-fluorine bonds, and highly polarized bonds to fluorine. Most fluorination reactions still lack generality, predictability, and cost-efficiency. Despite all current limitations, modern fluorination methods have made fluorinated molecules more readily available than ever before and have begun to have an impact on research areas that do not require large amounts of material, such as drug discovery and positron emission tomography. This Review gives a brief summary of conventional fluorination reactions, including those reactions that introduce fluorinated functional groups, and focuses on modern developments in the field. </t>
@@ -418,94 +693,211 @@
     <t xml:space="preserve">In the present work improved Cu/ZrO2 catalysts for the steam reforming of methanol (MSR) were investigated. Using various starting materials, templates and synthesis routes, nanostructured, mesoporous, and macroporous Cu/ZrO2 catalysts were prepared and subsequently investigated under methanol steam reforming (MSR) conditions. XRD (X-ray diffraction) and XAS (X-ray absorption spectroscopy) combined with mass spectrometry were used to monitor structural changes, stability and catalytic activity under reaction conditions. Ex situ XAS measurements of the precursors identified very small or highly disordered CuO particles as the main copper phase. XRD measurements of the precursors showed that tetragonal ZrO2 is the major zirconia phase, while various amounts of monoclinic ZrO2 were also detectable depending on preparation and copper content. The copper oxide clusters in nearly all samples were reduced incompletely during heating in 2 vol-% H2/He probably because of characteristic Cu metal support interactions in the Cu/ZrO2 catalysts. All catalysts studied were active for MSR. The initial low activity could be significantly improved by a temporary addition of oxygen to the feed. The microstructure of the copper phase in the activated catalysts strongly deviates from ideal copper metal. EXAFS analysis showed, that an increased amount of oxygen in the copper metal clusters correlates with an increasing activity for MSR. Furthermore, it was found that after extended times in the MSR feed at elevated temperatures (673 K, 2 vol-% H2/He), the catalysts were still active or could be activated (via O2 addition). With regard to the influence of the preparation on the catalytic performance it was found, that the sequential formation of the ZrO2 and CuO precursors, as well as the impregnation of a pre-formed (calcined) ZrO2 support lead to stronger metal-support-interactions, and hence to improved MSR-activities. The copper concentration also plays a significant role, as with lower concentrations (less than ~ 15 %) better interactions are achieved. </t>
   </si>
   <si>
-    <t>Matías Corvino (en latín, Matthias Corvinus; en húngaro, Hunyadi Mátyás; en croata, Matija Korvin; en rumano, Matei Corvin; en eslovaco, Matej Korvín; en checo, Matyáš Korvín; Kolozsvár, 23 de febrero de 1443-Viena, 6 de abril de 1490), nacido Matías Hunyadi y también denominado Matías I, fue rey de Hungría y Croacia desde 1458 hasta su muerte. Después de realizar varias campañas militares, fue elegido rey de Bohemia en 1469 y adoptó el título de duque de Austria en 1487.</t>
-  </si>
-  <si>
-    <t>Vladislao Jagellón de Bohemia y Vladislao II de Hungría (en húngaro: II. Ulászló) (Cracovia, 1 de marzo de 1456 - Buda (ahora Budapest), 13 de marzo de 1516), Rey de Bohemia (1471-1516) y trigésimoquinto Rey de Hungría (1490-1516). Tras obtener la corona húngara heredándola a través de su madre gobernó en Hungría y Bohemia desde la corte de Buda como era costumbre en esa época, así como sus otros predecesores habían hecho.</t>
-  </si>
-  <si>
-    <t>Der Löwenwald-Garten gehört zu den chinesischen Gärten mit den größten und ältesten künstlichen Fels-Arrangements. Die ursprünglichen Arrangements umfassen 1200 Quadratmeter auf der Ostseite des Teiches, zu Beginn kamen im Rahmen einer Erweiterung des Gartens 1100 Quadratmeter auf der Westseite des Teiches dazu. Die schon von Natur aus zerklüfteten Steine wurden dabei so angeordnet, dass kleine Spitzen und Schluchten entstanden. Insgesamt neun Wege führen durch diese kleine Felsenlandschaft, 21 Höhlen geben dem Besucher das Gefühl, sich zu verlaufen. Einige dieser Steine sehen zudem wie Löwen aus, die eine springende, schlafende oder brüllende Haltung einnehmen.</t>
-  </si>
-  <si>
-    <t>Vladislaus II, also known as Vladislav II,[1][2] Władysław II[3] or Wladislas II[4] (1 March 1456 – 13 March 1516; Czech: Vladislav Jagellonský; Hungarian: II. Ulászló; Polish: Władysław II Jagiellończyk; Croatian: Vladislav II. Jagelović; Slovak: Vladislav II. Jagelovský), was King of Bohemia from 1471 to 1516, and King of Hungary and Croatia from 1490 to 1516. As the eldest son of Casimir IV Jagiellon, he was expected to inherit Poland and Lithuania. George of Poděbrady, the Hussite ruler of Bohemia, offered to make Vladislaus his heir in 1468. Poděbrady needed Casimir IV's support against the rebellious Catholic noblemen and their ally, Matthias Corvinus, king of Hungary. The Diet of Bohemia elected Vladislaus king after Poděbrady's death, but he could only rule Bohemia proper, because Matthias (whom the Catholic nobles had elected king) occupied Moravia, Silesia and Lusatia. Vladislaus tried to reconquer the three provinces with his father's assistance, but Matthias repelled them.</t>
-  </si>
-  <si>
-    <t>[total no of pages content]</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>V 8</t>
-  </si>
-  <si>
-    <t>VII, 57</t>
-  </si>
-  <si>
-    <t>[Language of abstract]</t>
-  </si>
-  <si>
-    <t>[Language of publication]</t>
-  </si>
-  <si>
-    <t>[Date published in print valid]</t>
-  </si>
-  <si>
-    <t>[Date published online valid]</t>
-  </si>
-  <si>
-    <t>2016-03-16</t>
-  </si>
-  <si>
-    <t>[Date accepted valid]</t>
-  </si>
-  <si>
-    <t>[Date submitted valid]</t>
-  </si>
-  <si>
-    <t>2014-12-12</t>
-  </si>
-  <si>
-    <t>[Date modified valid]</t>
-  </si>
-  <si>
-    <t>[Date created valid]</t>
-  </si>
-  <si>
-    <t>[total no of pages]</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>II 7</t>
-  </si>
-  <si>
-    <t>3214</t>
-  </si>
-  <si>
-    <t>XII, 12</t>
-  </si>
-  <si>
-    <t>[Table of content]</t>
-  </si>
-  <si>
-    <t>1 Leben
+    <t xml:space="preserve">Matías Corvino (en latín, Matthias Corvinus; en húngaro, Hunyadi Mátyás; en croata, Matija Korvin; en rumano, Matei Corvin; en eslovaco, Matej Korvín; en checo, Matyáš Korvín; Kolozsvár, 23 de febrero de 1443-Viena, 6 de abril de 1490), nacido Matías Hunyadi y también denominado Matías I, fue rey de Hungría y Croacia desde 1458 hasta su muerte. Después de realizar varias campañas militares, fue elegido rey de Bohemia en 1469 y adoptó el título de duque de Austria en 1487.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladislao Jagellón de Bohemia y Vladislao II de Hungría (en húngaro: II. Ulászló) (Cracovia, 1 de marzo de 1456 - Buda (ahora Budapest), 13 de marzo de 1516), Rey de Bohemia (1471-1516) y trigésimoquinto Rey de Hungría (1490-1516). Tras obtener la corona húngara heredándola a través de su madre gobernó en Hungría y Bohemia desde la corte de Buda como era costumbre en esa época, así como sus otros predecesores habían hecho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Löwenwald-Garten gehört zu den chinesischen Gärten mit den größten und ältesten künstlichen Fels-Arrangements. Die ursprünglichen Arrangements umfassen 1200 Quadratmeter auf der Ostseite des Teiches, zu Beginn kamen im Rahmen einer Erweiterung des Gartens 1100 Quadratmeter auf der Westseite des Teiches dazu. Die schon von Natur aus zerklüfteten Steine wurden dabei so angeordnet, dass kleine Spitzen und Schluchten entstanden. Insgesamt neun Wege führen durch diese kleine Felsenlandschaft, 21 Höhlen geben dem Besucher das Gefühl, sich zu verlaufen. Einige dieser Steine sehen zudem wie Löwen aus, die eine springende, schlafende oder brüllende Haltung einnehmen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladislaus II, also known as Vladislav II,[1][2] Władysław II[3] or Wladislas II[4] (1 March 1456 – 13 March 1516; Czech: Vladislav Jagellonský; Hungarian: II. Ulászló; Polish: Władysław II Jagiellończyk; Croatian: Vladislav II. Jagelović; Slovak: Vladislav II. Jagelovský), was King of Bohemia from 1471 to 1516, and King of Hungary and Croatia from 1490 to 1516. As the eldest son of Casimir IV Jagiellon, he was expected to inherit Poland and Lithuania. George of Poděbrady, the Hussite ruler of Bohemia, offered to make Vladislaus his heir in 1468. Poděbrady needed Casimir IV's support against the rebellious Catholic noblemen and their ally, Matthias Corvinus, king of Hungary. The Diet of Bohemia elected Vladislaus king after Poděbrady's death, but he could only rule Bohemia proper, because Matthias (whom the Catholic nobles had elected king) occupied Moravia, Silesia and Lusatia. Vladislaus tried to reconquer the three provinces with his father's assistance, but Matthias repelled them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[total no of pages content]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII, 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Language of abstract]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deu - German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng - English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ful - Fulah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spa - Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin - Finnish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por - Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Language of publication]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date published in print valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date published online valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date accepted valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date submitted valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date modified valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Date created valid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[total no of pages]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XII, 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Table of content]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Leben
     1.1 1743–1767: Italien und Wien
     1.2 1767–1768: Paris
     1.3 1768–1805: Spanien
@@ -524,7 +916,7 @@
 3 Literatur</t>
   </si>
   <si>
-    <t>Table of contents
+    <t xml:space="preserve">Table of contents
 List of tables
 List of figures
 List of abbreviations
@@ -554,7 +946,7 @@
 1. Determining business policy preferences on international trade</t>
   </si>
   <si>
-    <t>Zusammenfassung
+    <t xml:space="preserve">Zusammenfassung
 Abstract
 Danksagung
 1  Introduction
@@ -583,7 +975,7 @@
 3.2  X-ray absorption spectroscopy (XAS)</t>
   </si>
   <si>
-    <t>1 Cronología
+    <t xml:space="preserve">1 Cronología
     1.1 Evolución de la vida
     1.2 Futuro
 2 Composición y estructura
@@ -603,7 +995,7 @@
 3 Rotación y órbita</t>
   </si>
   <si>
-    <t>Sommaire
+    <t xml:space="preserve">Sommaire
 1 Principales caractéristiques
 2 Famille du droit romano-civiliste
     2.1 Droit romain
@@ -624,148 +1016,181 @@
 8 Annexes</t>
   </si>
   <si>
-    <t>[Publisher]</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Kager inc.</t>
-  </si>
-  <si>
-    <t>Droemer Knauer GmbH</t>
-  </si>
-  <si>
-    <t>A1 Verlag</t>
-  </si>
-  <si>
-    <t>WVT</t>
-  </si>
-  <si>
-    <t>[Place of publisher]</t>
-  </si>
-  <si>
-    <t>Munich - Tokyo - New York</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Nürtingen</t>
-  </si>
-  <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>Lauf a.d. Peg.</t>
-  </si>
-  <si>
-    <t>[Review type]</t>
-  </si>
-  <si>
-    <t>[identifier create item]</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>ISI</t>
-  </si>
-  <si>
-    <t>ISSN</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>PND</t>
-  </si>
-  <si>
-    <t>SSRN</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>URN</t>
-  </si>
-  <si>
-    <t>ZDB</t>
-  </si>
-  <si>
-    <t>[identifier value]</t>
+    <t xml:space="preserve">[Publisher]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kager inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droemer Knauer GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 Verlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Place of publisher]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munich - Tokyo - New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nürtingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tromsø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauf a.d. Peg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Review type]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[identifier create item]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arXiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BibTex Citekey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eDoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patent Application Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patent Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patent Publication Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[identifier value]</t>
   </si>
   <si>
     <t xml:space="preserve">arXiv:0805.0192v1 </t>
   </si>
   <si>
-    <t>RieseGZHOKLBWELHKM2014</t>
-  </si>
-  <si>
-    <t>1478-811X-11-24</t>
+    <t xml:space="preserve">RieseGZHOKLBWELHKM2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1478-811X-11-24</t>
   </si>
   <si>
     <t xml:space="preserve">/journals/resource/111071069889000 </t>
   </si>
   <si>
-    <t>10.1186/1756-0500-4-483</t>
-  </si>
-  <si>
-    <t>629643</t>
-  </si>
-  <si>
-    <t>2385963_1</t>
+    <t xml:space="preserve">10.1186/1756-0500-4-483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2385963_1</t>
   </si>
   <si>
     <t xml:space="preserve">1471-2288 1471-2288 </t>
   </si>
   <si>
-    <t>000388133300004</t>
+    <t xml:space="preserve">000388133300004</t>
   </si>
   <si>
     <t xml:space="preserve">1756-0500 (Electronic) </t>
   </si>
   <si>
-    <t>ITB446</t>
-  </si>
-  <si>
-    <t>WO2017EP69254</t>
-  </si>
-  <si>
-    <t>DE102015002297B4</t>
+    <t xml:space="preserve">ITB446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO2017EP69254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE102015002297B4</t>
   </si>
   <si>
     <t xml:space="preserve">WO2018020046 </t>
   </si>
   <si>
-    <t>3832843</t>
-  </si>
-  <si>
-    <t>118601121</t>
-  </si>
-  <si>
-    <t>266470</t>
-  </si>
-  <si>
-    <t>shh514</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/pubmed/22067256 http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3225354/pdf/1756-0500-4-483.pdf?tool=pmcentrez</t>
+    <t xml:space="preserve">3832843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118601121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shh514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/pubmed/22067256 http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3225354/pdf/1756-0500-4-483.pdf?tool=pmcentrez</t>
   </si>
   <si>
     <t xml:space="preserve">urn:nbn:de:0074-1632-7 </t>
@@ -774,88 +1199,91 @@
     <t xml:space="preserve">2260998-2 </t>
   </si>
   <si>
-    <t>[Edition]</t>
-  </si>
-  <si>
-    <t>1. Aufl</t>
-  </si>
-  <si>
-    <t>Übers. aus dem Persischen</t>
-  </si>
-  <si>
-    <t>Erste Auflage</t>
-  </si>
-  <si>
-    <t>[Publication Date]</t>
-  </si>
-  <si>
-    <t>2018-02-15</t>
-  </si>
-  <si>
-    <t>2016-04-02</t>
-  </si>
-  <si>
-    <t>2001-03-02</t>
-  </si>
-  <si>
-    <t>2005-11-06</t>
-  </si>
-  <si>
-    <t>[Application Date]</t>
-  </si>
-  <si>
-    <t>2013-03-23</t>
-  </si>
-  <si>
-    <t>2017-12-01</t>
-  </si>
-  <si>
-    <t>2016-02-01</t>
-  </si>
-  <si>
-    <t>1999-09-08</t>
-  </si>
-  <si>
-    <t>2004-04-23</t>
-  </si>
-  <si>
-    <t>[Authority Code]</t>
-  </si>
-  <si>
-    <t>H121</t>
-  </si>
-  <si>
-    <t>N511</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>[Authority Place]</t>
+    <t xml:space="preserve">[Edition]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Aufl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übers. aus dem Persischen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste Auflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Publication Date]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Application Date]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Authority Code]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Authority Place]</t>
   </si>
   <si>
     <t xml:space="preserve">Munich </t>
   </si>
   <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>[Court]</t>
-  </si>
-  <si>
-    <t>Oberlandesgericht München</t>
+    <t xml:space="preserve">Prague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Court]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oberlandesgericht München</t>
   </si>
   <si>
     <t xml:space="preserve">Supreme Court </t>
@@ -864,16 +1292,16 @@
     <t xml:space="preserve">International Court of Arbitration </t>
   </si>
   <si>
-    <t>European Court of Justice</t>
-  </si>
-  <si>
-    <t>Bundesverfassungsgericht</t>
-  </si>
-  <si>
-    <t>[Case Reference Number]</t>
-  </si>
-  <si>
-    <t>ABC-123/12</t>
+    <t xml:space="preserve">European Court of Justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundesverfassungsgericht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Case Reference Number]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-123/12</t>
   </si>
   <si>
     <t xml:space="preserve">BAG, 2017-04-26 - 5 AZR 962/13 </t>
@@ -882,43 +1310,43 @@
     <t xml:space="preserve">CJEU, 1992-07-07 - C-369/90 (ECR I-4239, ILEC 092) </t>
   </si>
   <si>
-    <t>001-002-002</t>
-  </si>
-  <si>
-    <t>ABC/345 (57b)</t>
-  </si>
-  <si>
-    <t>[Title Legal Case]</t>
-  </si>
-  <si>
-    <t>Barcelona Traction, Light and Power Company, Limited(Second Application: 1962)</t>
-  </si>
-  <si>
-    <t>North Sea Continental Shelf cases</t>
-  </si>
-  <si>
-    <t>City of Los Angeles v. National Highway Traffic Safety Administration (NHTSA)</t>
+    <t xml:space="preserve">001-002-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC/345 (57b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Title Legal Case]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona Traction, Light and Power Company, Limited(Second Application: 1962)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Sea Continental Shelf cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Los Angeles v. National Highway Traffic Safety Administration (NHTSA)</t>
   </si>
   <si>
     <t xml:space="preserve">Micheletti v Delegación del Gobierno de Cantabria </t>
   </si>
   <si>
-    <t>[Date Legal Case]</t>
-  </si>
-  <si>
-    <t>1962-06-09</t>
-  </si>
-  <si>
-    <t>1967-02-20</t>
-  </si>
-  <si>
-    <t>2014-10-14</t>
-  </si>
-  <si>
-    <t>2000-02-05</t>
-  </si>
-  <si>
-    <t>[Title of event]</t>
+    <t xml:space="preserve">[Date Legal Case]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1967-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Title of event]</t>
   </si>
   <si>
     <t xml:space="preserve">26th International Symposium on Algorithms and Computation </t>
@@ -933,211 +1361,217 @@
     <t xml:space="preserve">2014 AIChE Annual Meeting </t>
   </si>
   <si>
-    <t>[Place of event]</t>
-  </si>
-  <si>
-    <t>Nagoya, Japan</t>
-  </si>
-  <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
-    <t>Tromsø, Norway</t>
-  </si>
-  <si>
-    <t>Lauf a.d. Peg., Germany</t>
-  </si>
-  <si>
-    <t>[Start date of event]</t>
-  </si>
-  <si>
-    <t>2015-12-09</t>
-  </si>
-  <si>
-    <t>2016-08-06</t>
-  </si>
-  <si>
-    <t>2017-05-06</t>
-  </si>
-  <si>
-    <t>1989-12-30</t>
-  </si>
-  <si>
-    <t>[End date of event]</t>
-  </si>
-  <si>
-    <t>2015-12-12</t>
-  </si>
-  <si>
-    <t>2017-05-08</t>
-  </si>
-  <si>
-    <t>1990-01-02</t>
-  </si>
-  <si>
-    <t>[invited]</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>[Project name]</t>
-  </si>
-  <si>
-    <t>Large XL Cluster Fun</t>
-  </si>
-  <si>
-    <t>This is a very interesting project</t>
-  </si>
-  <si>
-    <t>Conducting a large-scale national study on how young adults interact with news and gather information</t>
-  </si>
-  <si>
-    <t>Grant ID is a required element for each pass-through record entered</t>
-  </si>
-  <si>
-    <t>Entdecken Sie das gesamte Sortiment von project: Stühle, Tische, Schränke</t>
-  </si>
-  <si>
-    <t>[Grant ID]</t>
-  </si>
-  <si>
-    <t>BC500/12</t>
-  </si>
-  <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>DP150103299</t>
-  </si>
-  <si>
-    <t>123-4567</t>
-  </si>
-  <si>
-    <t>ABC-DEFG</t>
-  </si>
-  <si>
-    <t>[Funding program]</t>
+    <t xml:space="preserve">[Place of event]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagoya, Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tromsø, Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauf a.d. Peg., Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Start date of event]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[End date of event]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[invited]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Project name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large XL Cluster Fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very interesting project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conducting a large-scale national study on how young adults interact with news and gather information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant ID is a required element for each pass-through record entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entdecken Sie das gesamte Sortiment von project: Stühle, Tische, Schränke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Grant ID]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC500/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP150103299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123-4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-DEFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Funding program]</t>
   </si>
   <si>
     <t xml:space="preserve">Horizon 2020 </t>
   </si>
   <si>
-    <t>FP7</t>
-  </si>
-  <si>
-    <t>DFG Tolle Forschung 2000</t>
-  </si>
-  <si>
-    <t>Funding ID</t>
-  </si>
-  <si>
-    <t>Funding organization</t>
-  </si>
-  <si>
-    <t>Org.ID</t>
-  </si>
-  <si>
-    <t>[genre source]</t>
-  </si>
-  <si>
-    <t>[title source]</t>
+    <t xml:space="preserve">FP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFG Tolle Forschung 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[genre source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encyclopedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[title source]</t>
   </si>
   <si>
     <t xml:space="preserve">Psychonomic Bulletin &amp; Review. Advance online publication </t>
   </si>
   <si>
-    <t>Title source [selected genre] - timestamp</t>
-  </si>
-  <si>
-    <t>[role source]</t>
-  </si>
-  <si>
-    <t>[Person source]</t>
-  </si>
-  <si>
-    <t>[organization source]</t>
-  </si>
-  <si>
-    <t>[Address organization source]</t>
-  </si>
-  <si>
-    <t>[Volume source]</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>[Total no of pages source]</t>
-  </si>
-  <si>
-    <t>III 54</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>XXII, 12</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>[Publisher source]</t>
-  </si>
-  <si>
-    <t>[Place source]</t>
-  </si>
-  <si>
-    <t>[identifier source create item]</t>
-  </si>
-  <si>
-    <t>[identifier source value]</t>
+    <t xml:space="preserve">Title source [selected genre] - timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[identifier source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[role source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Person source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[organization source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Address organization source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Volume source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Total no of pages source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXII, 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Publisher source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Place source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[identifier source create item]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[identifier source value]</t>
   </si>
   <si>
     <t xml:space="preserve">arXiv:1304.2685.pdf </t>
   </si>
   <si>
-    <t>PetkovKMMRL2015</t>
-  </si>
-  <si>
-    <t>1743-0003-10-33</t>
-  </si>
-  <si>
-    <t>10.1186/s12874-016-0157-8</t>
-  </si>
-  <si>
-    <t>627720</t>
-  </si>
-  <si>
-    <t>2334733_1</t>
+    <t xml:space="preserve">PetkovKMMRL2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1743-0003-10-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12874-016-0157-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2334733_1</t>
   </si>
   <si>
     <t xml:space="preserve">978-99975-0-268-1 </t>
   </si>
   <si>
-    <t>000307988900082</t>
+    <t xml:space="preserve">000307988900082</t>
   </si>
   <si>
     <t xml:space="preserve">1471-2164 </t>
   </si>
   <si>
-    <t>publisher-idPONE-D-13-42021</t>
+    <t xml:space="preserve">publisher-idPONE-D-13-42021</t>
   </si>
   <si>
     <t xml:space="preserve">EP20110186177 </t>
@@ -1146,13 +1580,13 @@
     <t xml:space="preserve">WO 2013041732 A1 </t>
   </si>
   <si>
-    <t>EP2583940 A1</t>
-  </si>
-  <si>
-    <t>3938684</t>
-  </si>
-  <si>
-    <t>24587323</t>
+    <t xml:space="preserve">EP2583940 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3938684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24587323</t>
   </si>
   <si>
     <t xml:space="preserve">IPP 3/36 </t>
@@ -1161,525 +1595,136 @@
     <t xml:space="preserve">2222629 </t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1186/1756-0500-5-358</t>
-  </si>
-  <si>
-    <t>urn:nbn:de:0030-drops-58204</t>
-  </si>
-  <si>
-    <t>2390844-0</t>
-  </si>
-  <si>
-    <t>[issue source]</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>[Start page source]</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>6f.</t>
-  </si>
-  <si>
-    <t>89ff.</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>055019</t>
+    <t xml:space="preserve">http://dx.doi.org/10.1186/1756-0500-5-358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:nbn:de:0030-drops-58204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2390844-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[issue source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Start page source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6f.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89ff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Endpage source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sequence number source]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">055019</t>
   </si>
   <si>
     <t xml:space="preserve">025805 </t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>SampleTIFFile.tif</t>
-  </si>
-  <si>
-    <t>[Person]</t>
-  </si>
-  <si>
-    <t>[identifier source]</t>
-  </si>
-  <si>
-    <t>[Endpage source]</t>
-  </si>
-  <si>
-    <t>[Sequence number source]</t>
-  </si>
-  <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>Diploma</t>
-  </si>
-  <si>
-    <t>Habilitation</t>
-  </si>
-  <si>
-    <t>Magister</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Staatsexamen</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Restricted</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Publisher version</t>
-  </si>
-  <si>
-    <t>Supplementary material</t>
-  </si>
-  <si>
-    <t>Preprint</t>
-  </si>
-  <si>
-    <t>Postprint</t>
-  </si>
-  <si>
-    <t>Copyright transfer agreement</t>
-  </si>
-  <si>
-    <t>Table of contents</t>
-  </si>
-  <si>
-    <t>Correspondence</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Any fulltext</t>
-  </si>
-  <si>
-    <t>Sound engineer</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Artist</t>
-  </si>
-  <si>
-    <t>Painter</t>
-  </si>
-  <si>
-    <t>Illustrator</t>
-  </si>
-  <si>
-    <t>Photographer</t>
-  </si>
-  <si>
-    <t>Commentator</t>
-  </si>
-  <si>
-    <t>Transcriber</t>
-  </si>
-  <si>
-    <t>Advisor</t>
-  </si>
-  <si>
-    <t>Translator</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>Honoree</t>
-  </si>
-  <si>
-    <t>Referee</t>
-  </si>
-  <si>
-    <t>Inventor</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Cinematographer</t>
-  </si>
-  <si>
-    <t>Applicant</t>
-  </si>
-  <si>
-    <t>ISO639-3</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Peer</t>
-  </si>
-  <si>
-    <t>No review</t>
-  </si>
-  <si>
-    <t>arXiv</t>
-  </si>
-  <si>
-    <t>BibTex Citekey</t>
-  </si>
-  <si>
-    <t>CoNE</t>
-  </si>
-  <si>
-    <t>eDoc</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Patent Nr.</t>
-  </si>
-  <si>
-    <t>Patent Publication Nr.</t>
-  </si>
-  <si>
-    <t>Report Nr.</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Proceedings</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>Newspaper</t>
-  </si>
-  <si>
-    <t>Encyclopedia</t>
-  </si>
-  <si>
-    <t>Multi-Volume</t>
-  </si>
-  <si>
-    <t>Commentary</t>
-  </si>
-  <si>
-    <t>Handbook</t>
-  </si>
-  <si>
-    <t>Collected Edition</t>
-  </si>
-  <si>
-    <t>Festschrift</t>
-  </si>
-  <si>
-    <t>Journal Article</t>
-  </si>
-  <si>
-    <t>Editorial</t>
-  </si>
-  <si>
-    <t>Case Study</t>
-  </si>
-  <si>
-    <t>Case Note</t>
-  </si>
-  <si>
-    <t>Newspaper Article</t>
-  </si>
-  <si>
-    <t>Book Chapter</t>
-  </si>
-  <si>
-    <t>Contribution to Commentary</t>
-  </si>
-  <si>
-    <t>Contribution to Festschrift</t>
-  </si>
-  <si>
-    <t>Contribution to Handbook</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Book Review</t>
-  </si>
-  <si>
-    <t>Opinion</t>
-  </si>
-  <si>
-    <t>Manuscript</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t>Monograph</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Conference Paper</t>
-  </si>
-  <si>
-    <t>Meeting Abstract</t>
-  </si>
-  <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>Conference Report</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>Thesis</t>
-  </si>
-  <si>
-    <t>Patent</t>
-  </si>
-  <si>
-    <t>Patent Application Nr.</t>
-  </si>
-  <si>
-    <t>CH functionalization; fluorine; trifluoromethylation KeyWords Plus:OXIDATIVE DESULFURIZATION-FLUORINATION; ONE-POT SYNTHESIS; ELECTROPHILIC DIFLUOROMETHYLATING REAGENT;</t>
-  </si>
-  <si>
-    <t>deu</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>ful</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>2016-09-01</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2014-03-02</t>
-  </si>
-  <si>
-    <t>2014-03-03</t>
-  </si>
-  <si>
-    <t>2014-03-04</t>
-  </si>
-  <si>
-    <t>2014-03-05</t>
-  </si>
-  <si>
-    <t>2014-03-06</t>
-  </si>
-  <si>
-    <t>2014-03-07</t>
-  </si>
-  <si>
-    <t>1993-01-01</t>
-  </si>
-  <si>
-    <t>1993-01-02</t>
-  </si>
-  <si>
-    <t>1993-01-03</t>
-  </si>
-  <si>
-    <t>1993-01-04</t>
-  </si>
-  <si>
-    <t>1993-01-05</t>
-  </si>
-  <si>
-    <t>1993-01-06</t>
-  </si>
-  <si>
-    <t>2017-01-02</t>
-  </si>
-  <si>
-    <t>2017-01-03</t>
-  </si>
-  <si>
-    <t>2017-01-04</t>
-  </si>
-  <si>
-    <t>2017-01-05</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>1998-10-12</t>
-  </si>
-  <si>
-    <t>1998-10-10</t>
-  </si>
-  <si>
-    <t>1998-10-11</t>
-  </si>
-  <si>
-    <t>2015-03-03</t>
-  </si>
-  <si>
-    <t>2014-07-08</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>por</t>
-  </si>
-  <si>
-    <t>1998-10-07</t>
-  </si>
-  <si>
-    <t>1998-10-08</t>
-  </si>
-  <si>
-    <t>1998-10-09</t>
-  </si>
-  <si>
-    <t>deu - German</t>
-  </si>
-  <si>
-    <t>eng - English</t>
-  </si>
-  <si>
-    <t>ful - Fulah</t>
-  </si>
-  <si>
-    <t>spa - Spanish</t>
-  </si>
-  <si>
-    <t>fin - Finnish</t>
-  </si>
-  <si>
-    <t>por - Portuguese</t>
-  </si>
-  <si>
-    <t>Contribution to Collected Edition</t>
-  </si>
-  <si>
-    <t>2014-01-15</t>
-  </si>
-  <si>
-    <t>Herbaceous plants - 716</t>
-  </si>
-  <si>
-    <t>Specific physiological systems in animals - 573</t>
-  </si>
-  <si>
-    <t>Geology, hydrology &amp; meteorology - 551</t>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF4F81BD"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="4"/>
-      <name val="Arial"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1691,430 +1736,234 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
-  <a:themeElements>
-    <a:clrScheme name="Larissa">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Larissa">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Larissa">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>423</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>424</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>429</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>428</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>430</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2123,88 +1972,88 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>434</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>421</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>435</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>437</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="T3" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2224,18 +2073,18 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="2"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>439</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2255,32 +2104,32 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="2"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>442</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>443</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2294,317 +2143,317 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="2"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="192" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>360</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>361</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>362</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>363</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>364</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2622,33 +2471,33 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2665,107 +2514,107 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="84" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2781,669 +2630,669 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="72" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>380</v>
+        <v>126</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>384</v>
+        <v>130</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>390</v>
+        <v>136</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>391</v>
+        <v>137</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>392</v>
+        <v>138</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>394</v>
+        <v>140</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>395</v>
+        <v>141</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="84" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3461,18 +3310,18 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3492,27 +3341,27 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>88</v>
+        <v>161</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3531,30 +3380,30 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="228" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="228" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>448</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3572,317 +3421,317 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3899,98 +3748,98 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>482</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>483</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>484</v>
+        <v>217</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>485</v>
+        <v>218</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>486</v>
+        <v>219</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4009,27 +3858,27 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>449</v>
+        <v>222</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>450</v>
+        <v>223</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>451</v>
+        <v>224</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>478</v>
+        <v>227</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4048,24 +3897,24 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>453</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>479</v>
+        <v>230</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>455</v>
+        <v>232</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4085,24 +3934,24 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>480</v>
+        <v>236</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>467</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>456</v>
+        <v>238</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>462</v>
+        <v>239</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4122,24 +3971,24 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>468</v>
+        <v>243</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>457</v>
+        <v>244</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4159,24 +4008,24 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>473</v>
+        <v>248</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>464</v>
+        <v>251</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4196,24 +4045,24 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>474</v>
+        <v>253</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>470</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4233,24 +4082,24 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>476</v>
+        <v>258</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>472</v>
+        <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>460</v>
+        <v>261</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>466</v>
+        <v>262</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4270,95 +4119,95 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -4378,27 +4227,27 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4417,27 +4266,27 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4456,18 +4305,18 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4489,158 +4338,158 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>447</v>
+        <v>304</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="144" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>184</v>
+        <v>318</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>190</v>
+        <v>324</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q48" s="8">
+        <v>330</v>
+      </c>
+      <c r="Q48" s="9" t="n">
         <v>24312104</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>205</v>
+        <v>339</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4662,24 +4511,24 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>207</v>
+        <v>341</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4699,24 +4548,24 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4736,24 +4585,24 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -4773,24 +4622,24 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4810,24 +4659,24 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -4847,24 +4696,24 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4884,21 +4733,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="108" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="108" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>241</v>
+        <v>376</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4919,21 +4768,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -4954,21 +4803,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="84" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>253</v>
+        <v>388</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -4989,21 +4838,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -5024,21 +4873,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>263</v>
+        <v>398</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5059,19 +4908,19 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>402</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="5" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5092,15 +4941,15 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -5123,24 +4972,24 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="108" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>276</v>
+        <v>411</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -5160,24 +5009,24 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>279</v>
+        <v>414</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -5197,18 +5046,18 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>286</v>
+        <v>421</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>287</v>
+        <v>422</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -5230,12 +5079,12 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
@@ -5259,12 +5108,12 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>290</v>
+        <v>425</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="5"/>
@@ -5288,12 +5137,12 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>291</v>
+        <v>426</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
@@ -5317,45 +5166,45 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>292</v>
+        <v>427</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>415</v>
+        <v>27</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>421</v>
+        <v>21</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5368,241 +5217,241 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="72" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>294</v>
+        <v>430</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>447</v>
+        <v>304</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>380</v>
+        <v>126</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>384</v>
+        <v>130</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>390</v>
+        <v>136</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>391</v>
+        <v>137</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>392</v>
+        <v>138</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>394</v>
+        <v>140</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>395</v>
+        <v>141</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="T72" s="5" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -5620,30 +5469,30 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -5661,18 +5510,18 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -5692,169 +5541,169 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>305</v>
+        <v>442</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>305</v>
+        <v>442</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>305</v>
+        <v>442</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>305</v>
+        <v>442</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>310</v>
+        <v>447</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>310</v>
+        <v>447</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>310</v>
+        <v>447</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>310</v>
+        <v>447</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>448</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -5873,27 +5722,27 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>312</v>
+        <v>449</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -5912,241 +5761,241 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>313</v>
+        <v>450</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>447</v>
+        <v>304</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>314</v>
+        <v>451</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>315</v>
+        <v>452</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>316</v>
+        <v>453</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>318</v>
+        <v>455</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>319</v>
+        <v>456</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>322</v>
+        <v>459</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>325</v>
+        <v>462</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>326</v>
+        <v>463</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>327</v>
+        <v>464</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>328</v>
+        <v>465</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>330</v>
+        <v>467</v>
       </c>
       <c r="T81" s="5" t="s">
-        <v>331</v>
+        <v>468</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>332</v>
+        <v>469</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>333</v>
+        <v>470</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>335</v>
+        <v>472</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="V82" s="5" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>341</v>
+        <v>478</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>342</v>
+        <v>479</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>346</v>
+        <v>483</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>347</v>
+        <v>484</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -6164,24 +6013,24 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>357</v>
+        <v>485</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>348</v>
+        <v>486</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>342</v>
+        <v>479</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>349</v>
+        <v>487</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6201,24 +6050,24 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>358</v>
+        <v>488</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>351</v>
+        <v>490</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>352</v>
+        <v>491</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6239,31 +6088,58 @@
       <c r="W85" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>